--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -14,50 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Your Name</t>
   </si>
   <si>
-    <t>Lori R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class </t>
-  </si>
-  <si>
-    <t>Kevin T</t>
-  </si>
-  <si>
-    <t>emt</t>
-  </si>
-  <si>
-    <t>Christopher Yu</t>
-  </si>
-  <si>
-    <t>shoulder</t>
-  </si>
-  <si>
-    <t>Marie N</t>
-  </si>
-  <si>
-    <t>alsdkfj</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>lakjsdlfkj</t>
-  </si>
-  <si>
-    <t>Albert L</t>
-  </si>
-  <si>
     <t>Yes, and I can drive.</t>
   </si>
   <si>
-    <t>Jon</t>
-  </si>
-  <si>
     <t>Yes!</t>
   </si>
   <si>
@@ -74,6 +38,45 @@
   </si>
   <si>
     <t>Timestamp stuff</t>
+  </si>
+  <si>
+    <t>Jody T</t>
+  </si>
+  <si>
+    <t>Regina W</t>
+  </si>
+  <si>
+    <t>Kevin D</t>
+  </si>
+  <si>
+    <t>Ken T</t>
+  </si>
+  <si>
+    <t>Ambrose V</t>
+  </si>
+  <si>
+    <t>Jessica S</t>
+  </si>
+  <si>
+    <t>Howard Y</t>
+  </si>
+  <si>
+    <t>Michael C</t>
+  </si>
+  <si>
+    <t>Thomas C</t>
+  </si>
+  <si>
+    <t>Jerry L</t>
+  </si>
+  <si>
+    <t>Alex B</t>
+  </si>
+  <si>
+    <t>Ivonnie S</t>
+  </si>
+  <si>
+    <t>Steven T</t>
   </si>
 </sst>
 </file>
@@ -415,106 +418,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -522,7 +525,55 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
